--- a/Excel/Chapter-2 Working With Tables.xlsx
+++ b/Excel/Chapter-2 Working With Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bootcamp\Excel\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bootcamp-Tasks\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB5B67-3186-43FC-8E2B-FCE455B655A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF76D276-D32C-4677-A133-133C88979D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise-1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="26">
   <si>
     <t>OrderDate</t>
   </si>
@@ -124,6 +124,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -363,11 +366,14 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -397,6 +403,832 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF9999FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <name val="Georgia"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -455,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <name val="Georgia"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -465,7 +1296,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -475,7 +1306,11 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -532,84 +1367,6 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -619,7 +1376,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -629,7 +1386,11 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -686,43 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -763,121 +1487,9 @@
         <sz val="12"/>
         <color rgb="FF333333"/>
         <name val="Georgia"/>
-        <family val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
@@ -982,10 +1594,10 @@
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
     <tableStyle name="Table Style 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
     </tableStyle>
     <tableStyle name="Table Style 3" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1068,17 +1680,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Sales" displayName="Sales" ref="I3:O46" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Sales" displayName="Sales" ref="I3:O47" totalsRowCount="1" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UnitCost" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="30" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep" dataDxfId="29" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item" dataDxfId="28" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UnitCost" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{60A3C317-42C9-457E-A63D-1E220005B65E}" name="Table2" displayName="Table2" ref="A1:G45" totalsRowCount="1" headerRowDxfId="7" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:G44" xr:uid="{60A3C317-42C9-457E-A63D-1E220005B65E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6AEBFB4B-300E-4E04-9B12-0323516BC1D7}" name="OrderDate" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{19648D20-1160-480C-96B0-932141F60334}" name="Region" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{36F0CB36-4F1E-4FBB-A76A-0EFD38D5D5F7}" name="Rep" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7B97D663-6F4F-440B-AD50-A2290836955D}" name="Item" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3A74CFAA-540F-4780-8FB5-534307FF2DE2}" name="Units" totalsRowFunction="max" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{10969751-466F-4B49-8E2C-FAD12D83E131}" name="UnitCost" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{98B81CF4-1750-4C63-97C8-20CBA551292C}" name="Total" totalsRowFunction="max" dataDxfId="8" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1345,9 +1973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:O46"/>
+  <dimension ref="A3:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3302,6 +3932,34 @@
         <v>139.72</v>
       </c>
     </row>
+    <row r="47" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f>AVERAGE(F4:F46)</f>
+        <v>20.308604651162792</v>
+      </c>
+      <c r="G47">
+        <f>SUM(G4:G46)</f>
+        <v>19627.880000000008</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="16">
+        <f>SUBTOTAL(101,Sales[Units])</f>
+        <v>49.325581395348834</v>
+      </c>
+      <c r="N47" s="16">
+        <f>SUBTOTAL(109,Sales[UnitCost])</f>
+        <v>873.2700000000001</v>
+      </c>
+      <c r="O47" s="17">
+        <f>SUBTOTAL(109,Sales[Total])</f>
+        <v>19627.880000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3314,48 +3972,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2AF0A5-52A5-4BC7-9324-F9B8F8DAA209}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>42010</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3373,12 +4031,12 @@
       <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="8">
         <v>189.05</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>42027</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3396,12 +4054,12 @@
       <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>999.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>42044</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3419,12 +4077,12 @@
       <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="8">
         <v>179.64</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>42061</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3442,12 +4100,12 @@
       <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>539.73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>42078</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3465,12 +4123,12 @@
       <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="8">
         <v>167.44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>42095</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3488,12 +4146,12 @@
       <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>299.39999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>42112</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3511,12 +4169,12 @@
       <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="8">
         <v>149.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>42129</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3534,12 +4192,12 @@
       <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="8">
         <v>449.1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>42146</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3557,12 +4215,12 @@
       <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="8">
         <v>63.68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>42163</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3580,12 +4238,12 @@
       <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>539.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>42180</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3603,12 +4261,12 @@
       <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="8">
         <v>449.1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>42197</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3626,12 +4284,12 @@
       <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="8">
         <v>57.71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>42214</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3649,12 +4307,12 @@
       <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="9">
         <v>1619.19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>42231</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3672,12 +4330,12 @@
       <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <v>174.65</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>42248</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3695,12 +4353,12 @@
       <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>42265</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3718,12 +4376,12 @@
       <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="8">
         <v>255.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>42282</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3741,12 +4399,12 @@
       <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="8">
         <v>251.72</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>42299</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3764,12 +4422,12 @@
       <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="8">
         <v>575.36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>42316</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3787,12 +4445,12 @@
       <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="8">
         <v>299.85000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>42333</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3810,12 +4468,12 @@
       <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="8">
         <v>479.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>42350</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3833,12 +4491,12 @@
       <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="8">
         <v>86.43</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>42367</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3856,12 +4514,12 @@
       <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <v>1183.26</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>42384</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3879,12 +4537,12 @@
       <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="8">
         <v>413.54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>42401</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3902,12 +4560,12 @@
       <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>42418</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3925,12 +4583,12 @@
       <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="8">
         <v>19.96</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>42436</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3948,12 +4606,12 @@
       <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <v>139.93</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>42453</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3971,12 +4629,12 @@
       <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="8">
         <v>249.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>42470</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3994,12 +4652,12 @@
       <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="8">
         <v>131.34</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+      <c r="A30" s="7">
         <v>42487</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4017,12 +4675,12 @@
       <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="8">
         <v>479.04</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+      <c r="A31" s="7">
         <v>42504</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4040,12 +4698,12 @@
       <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="8">
         <v>68.37</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="A32" s="7">
         <v>42521</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4063,12 +4721,12 @@
       <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="8">
         <v>719.2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+      <c r="A33" s="7">
         <v>42538</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -4086,12 +4744,12 @@
       <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="8">
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="A34" s="7">
         <v>42555</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4109,12 +4767,12 @@
       <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="8">
         <v>309.38</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <v>42572</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4132,12 +4790,12 @@
       <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="8">
         <v>686.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>42589</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4155,12 +4813,12 @@
       <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="9">
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+      <c r="A37" s="7">
         <v>42606</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4178,12 +4836,12 @@
       <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="8">
         <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="A38" s="7">
         <v>42623</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4201,12 +4859,12 @@
       <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="8">
         <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+      <c r="A39" s="7">
         <v>42640</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4224,12 +4882,12 @@
       <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="8">
         <v>151.24</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+      <c r="A40" s="7">
         <v>42657</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -4247,12 +4905,12 @@
       <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="9">
         <v>1139.43</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="A41" s="7">
         <v>42674</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4270,12 +4928,12 @@
       <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="8">
         <v>18.059999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="A42" s="7">
         <v>42691</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -4293,12 +4951,12 @@
       <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="8">
         <v>54.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+      <c r="A43" s="7">
         <v>42708</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4316,34 +4974,55 @@
       <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="9">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="A44" s="14">
         <v>42725</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="16">
         <v>28</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="16">
         <v>4.99</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="17">
         <v>139.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16">
+        <f>SUBTOTAL(104,Table2[Units])</f>
+        <v>96</v>
+      </c>
+      <c r="F45" s="16">
+        <f>SUBTOTAL(103,Table2[UnitCost])</f>
+        <v>43</v>
+      </c>
+      <c r="G45" s="17">
+        <f>SUBTOTAL(104,Table2[Total])</f>
+        <v>1879.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>